--- a/7015/wa_solution.xlsx
+++ b/7015/wa_solution.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="greedy_seach" sheetId="1" r:id="rId1"/>
     <sheet name="a_search" sheetId="2" r:id="rId2"/>
+    <sheet name="dt" sheetId="3" r:id="rId3"/>
+    <sheet name="Outlook Temperature Humidity Wi" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="80">
   <si>
     <t>init</t>
   </si>
@@ -102,6 +104,159 @@
   </si>
   <si>
     <t>g=5</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+  </si>
+  <si>
+    <t>k=2</t>
+  </si>
+  <si>
+    <t>k=1 yes</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>k=2 no</t>
+  </si>
+  <si>
+    <t>sunnyY</t>
+  </si>
+  <si>
+    <t>Ent(D)</t>
+  </si>
+  <si>
+    <t>sunnyN</t>
+  </si>
+  <si>
+    <t>overcast</t>
+  </si>
+  <si>
+    <t>overcastY</t>
+  </si>
+  <si>
+    <t>overcastN</t>
+  </si>
+  <si>
+    <t>rainy</t>
+  </si>
+  <si>
+    <t>rainyY</t>
+  </si>
+  <si>
+    <t>rainyN</t>
+  </si>
+  <si>
+    <t>v=3</t>
+  </si>
+  <si>
+    <t>sunnyD</t>
+  </si>
+  <si>
+    <t>overCastD</t>
+  </si>
+  <si>
+    <t>rainyD</t>
+  </si>
+  <si>
+    <t>gain(d,'outlook')</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>highY</t>
+  </si>
+  <si>
+    <t>highN</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>normalY</t>
+  </si>
+  <si>
+    <t>normalN</t>
+  </si>
+  <si>
+    <t>highD</t>
+  </si>
+  <si>
+    <t>normalD</t>
+  </si>
+  <si>
+    <t>gain(d,'humidity')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outlook </t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Humidity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windy </t>
+  </si>
+  <si>
+    <t>Play?</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>mild</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>v=2</t>
+  </si>
+  <si>
+    <t>gain(D,'temperature')</t>
+  </si>
+  <si>
+    <t>0.971-3/5Ent(Dt=mild) - 2/5 Ent(Dt=cool)</t>
+  </si>
+  <si>
+    <t>gain(D,'humidity')</t>
+  </si>
+  <si>
+    <t>0.971-2/5Ent(Dh=high) - 3/5 Ent(Dh=normal)</t>
+  </si>
+  <si>
+    <t>gain(D,'windy')</t>
+  </si>
+  <si>
+    <t>0.971-2/5Ent(Dw=true) - 3/5 Ent(Dw=false)</t>
+  </si>
+  <si>
+    <t>`-3/5Ent(Dt=mild)</t>
+  </si>
+  <si>
+    <t>`-2/5Ent(Dt=cool)</t>
+  </si>
+  <si>
+    <t>-2/5Ent(Dh=high)</t>
+  </si>
+  <si>
+    <t>`-3/5Ent(Dh=normal)</t>
+  </si>
+  <si>
+    <t>-2/5Ent(Dw=true)</t>
+  </si>
+  <si>
+    <t>`-3/5Ent(Dw=false)</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1279,7 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -1574,7 +1729,6 @@
       <c r="C26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D26"/>
       <c r="E26" s="6" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1738,6 @@
       <c r="G26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H26"/>
       <c r="I26" t="s">
         <v>18</v>
       </c>
@@ -2165,7 +2318,6 @@
       <c r="G26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H26"/>
       <c r="I26" t="s">
         <v>18</v>
       </c>
@@ -2269,6 +2421,490 @@
       </c>
       <c r="C33" s="6">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="13.75"/>
+    <col min="5" max="6" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1">
+        <f>9/14</f>
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <f>5/14</f>
+        <v>0.357142857142857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <f>-(F1*LOG(F1,2)+F2*LOG(F2,2))</f>
+        <v>0.940285958670631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <f>(B2/B1)*(-(B3/B2)*LOG(B3/B2,2)-(B4/B2)*LOG(B4/B2,2))</f>
+        <v>0.346768069448096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <f>(B5/B1)*(-(B6/B5)*LOG(B6/B5,2)-0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <f>(B8/B1)*(-(B9/B8)*LOG(B9/B8,2)-(B10/B8)*LOG(B10/B8,2))</f>
+        <v>0.346768069448096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <f>0.94-B15-B17</f>
+        <v>0.246463861103808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <f>(B20/B1)*(-(B21/B20)*LOG(B21/B20,2)-(B22/B20)*LOG(B22/B20,2))</f>
+        <v>0.492614068017126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <f>(B23/B1)*(-(B24/B23)*LOG(B24/B23,2)-(B25/B23)*LOG(B25/B23,2))</f>
+        <v>0.295836389291164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <f>E3-B27-B28</f>
+        <v>0.151835501362341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="9.875"/>
+    <col min="6" max="6" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <f>-(3/5*LOG(3/5,2)+2/5*LOG(2/5,2))</f>
+        <v>0.970950594454669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10">
+        <f>B8-B16-B17</f>
+        <v>0.019973094021975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <f>B8-B18-B19</f>
+        <v>0.019973094021975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <f>B8-B20-B21</f>
+        <v>0.970950594454669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <f>-3/5*(2/3*LOG(2/3,2)+1/3*LOG(1/3,2))</f>
+        <v>0.550977500432694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <f>-3/5*(2/3*LOG(2/3,2)+1/3*LOG(1/3,2))</f>
+        <v>0.550977500432694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <f>-2/5*(0.5*LOG(0.5,2)+0.5*LOG(0.5,2))</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <f>-2/5*(0.5*LOG(0.5,2)+0.5*LOG(0.5,2))</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <f>-3/5*(2/3*LOG(2/3,2)+1/3*LOG(1/3,2))</f>
+        <v>0.550977500432694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>-2/5*(LOG(1,2)+LOG(1,2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>-3/5*(LOG(1,2)+LOG(1,2))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
